--- a/SauceDemo/Bug Reports/Bug Report.xlsx
+++ b/SauceDemo/Bug Reports/Bug Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Documents\GitHub\QA-Portolio\SauceDemo\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B93021F1-65AD-415C-ADAF-29DDF2CBC5CF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0588AB62-AE0C-455E-B405-E25D92D55835}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10416" xr2:uid="{AF5EF97A-80BB-43A5-B40E-3BDE13A093FC}"/>
   </bookViews>
@@ -303,7 +303,6 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -314,12 +313,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+        <left/>
+        <right style="thin">
           <color indexed="64"/>
-        </left>
-        <right/>
+        </right>
         <top/>
         <bottom/>
       </border>
@@ -351,6 +350,7 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -361,12 +361,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
+        <left style="thin">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
         <top/>
         <bottom/>
       </border>
@@ -406,13 +406,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>198120</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>259079</xdr:rowOff>
+          <xdr:rowOff>259080</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1493520</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>834812</xdr:rowOff>
+          <xdr:rowOff>838200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -422,7 +422,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052507BB-AD64-4947-B6C8-5A09A0CDED5B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -443,23 +443,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -478,9 +465,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{555A9872-7268-4823-89FF-584C57DA718E}" name="Category" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{555A9872-7268-4823-89FF-584C57DA718E}" name="Category" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{E9710ECE-E62A-4900-9ABB-8FC498D1AE17}" name="Label" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E912A458-8505-46E1-AD21-1402835F80C7}" name="Value" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E912A458-8505-46E1-AD21-1402835F80C7}" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,7 +773,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
